--- a/testData/test.xlsx
+++ b/testData/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sheri\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Manual Testing\API\API data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94B9C1F0-9FAD-4E25-82FD-02547787CE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA9B0F6-4293-4669-97C8-BC8DC6E51A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B37B842-BBEB-4C04-8C3D-D0A97F1C78F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5B37B842-BBEB-4C04-8C3D-D0A97F1C78F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,33 +57,6 @@
     <t>testUser3</t>
   </si>
   <si>
-    <t>Ali</t>
-  </si>
-  <si>
-    <t>Kareem</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Magdy</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>Gamal</t>
-  </si>
-  <si>
-    <t>a@gmail.com</t>
-  </si>
-  <si>
-    <t>k@gmail.com</t>
-  </si>
-  <si>
-    <t>m@gmail.com</t>
-  </si>
-  <si>
     <t>test@12</t>
   </si>
   <si>
@@ -91,6 +64,33 @@
   </si>
   <si>
     <t>test@56</t>
+  </si>
+  <si>
+    <t>sudh</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Sandy</t>
+  </si>
+  <si>
+    <t>Verma</t>
+  </si>
+  <si>
+    <t>Shwami</t>
+  </si>
+  <si>
+    <t>Singh</t>
+  </si>
+  <si>
+    <t>suds@gmail.com</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>San@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -481,15 +481,15 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" customWidth="1"/>
-    <col min="5" max="5" width="16.44140625" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1010</v>
       </c>
@@ -520,22 +520,22 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="2">
         <v>123456789</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1020</v>
       </c>
@@ -543,22 +543,22 @@
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="G3" s="2">
         <v>456383021</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1030</v>
       </c>
@@ -566,16 +566,16 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G4" s="2">
         <v>545886288</v>
